--- a/doc/source/webappvpc/vars.xlsx
+++ b/doc/source/webappvpc/vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/tabular-terraform/webappvpc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B6B41-3DCC-A14B-B776-025B2AB95FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26DF397-5326-4D4D-8D81-BB2D1D751979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1000" windowWidth="21640" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="500" windowWidth="21640" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="63" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="148">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -81,18 +81,6 @@
     <t>webapptier-lb-algorithm</t>
   </si>
   <si>
-    <t>ubuntu-18-04-amd64</t>
-  </si>
-  <si>
-    <t>windows-2012-amd64</t>
-  </si>
-  <si>
-    <t>windows-2012-r2-amd64</t>
-  </si>
-  <si>
-    <t>windows-2016-amd64</t>
-  </si>
-  <si>
     <t>resource-group</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>"192.168.248.0/24"</t>
   </si>
   <si>
-    <t>"r006-ed3f775f-ad7e-4e37-ae62-7199b4988b00"</t>
-  </si>
-  <si>
     <t>bastionserver-name</t>
   </si>
   <si>
@@ -423,64 +408,73 @@
     <t>Define ssh key for compute instances</t>
   </si>
   <si>
-    <t>"r006-13938c0a-89e4-4370-b59b-55cd1402562d"</t>
-  </si>
-  <si>
-    <t>"r006-de4fc543-2ce1-47de-b0b8-b98556a741da"</t>
-  </si>
-  <si>
-    <t>"r006-8e4826f3-1394-40cf-af8f-c5e93039935b"</t>
-  </si>
-  <si>
-    <t>"r006-0f0c5fd0-d3f0-42a0-bc20-88a59286631e"</t>
-  </si>
-  <si>
-    <t>"r006-e279f5d7-fa19-4294-979e-7a6d048fbe71"</t>
-  </si>
-  <si>
-    <t>"r006-c803a85a-e3cf-4f61-bafa-ae1d9e759d15"</t>
-  </si>
-  <si>
-    <t>ubuntu-20-04-amd64</t>
-  </si>
-  <si>
-    <t>centos-8-3-amd64</t>
-  </si>
-  <si>
-    <t>centos-7-9-amd64</t>
-  </si>
-  <si>
-    <t>debian-10-8-amd64</t>
-  </si>
-  <si>
-    <t>debian-9-13-amd64</t>
-  </si>
-  <si>
-    <t>redhat-8-3-amd64</t>
-  </si>
-  <si>
-    <t>redhat-7-9-amd64</t>
-  </si>
-  <si>
-    <t>"r006-988caa8b-7786-49c9-aea6-9553af2b1969"</t>
-  </si>
-  <si>
-    <t>windows-2019-amd64</t>
-  </si>
-  <si>
-    <t>"r006-7e605d5f-2632-4ed2-a0c1-580af25decd4"</t>
-  </si>
-  <si>
-    <t>"r006-c089c0c5-0789-432a-9666-64e66ad6c9cf"</t>
-  </si>
-  <si>
-    <t>"r006-5ff6bd9a-226e-4c20-8718-2e50906aa249"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"r006-5f9568ae-792e-47e1-a710-5538b2bdfca7" </t>
-  </si>
-  <si>
-    <t>Define OS image for compute instances (ubuntu-20-04-amd64)</t>
+    <t>"r006-b5427052-bf0d-400a-a55c-e70894560b96"</t>
+  </si>
+  <si>
+    <t>"r006-577a6665-9958-42f7-a94b-42b81fab1ab5"</t>
+  </si>
+  <si>
+    <t>"r006-f3a6eb33-8b7f-4850-b7b7-cf2f4ef41bb6"</t>
+  </si>
+  <si>
+    <t>"r006-f137ea64-0d27-4d81-afe0-353fd0557e81"</t>
+  </si>
+  <si>
+    <t>"r006-1366d3e6-bf5b-49a0-b69a-8efd93cc225f"</t>
+  </si>
+  <si>
+    <t>"r006-7a639337-cb5b-478d-b9c4-59fd45937ec9"</t>
+  </si>
+  <si>
+    <t>debian-10-11-minimal-amd64-3</t>
+  </si>
+  <si>
+    <t>debian-11-3-minimal-amd64-1</t>
+  </si>
+  <si>
+    <t>redhat-8-4-minimal-amd64-3</t>
+  </si>
+  <si>
+    <t>redhat-8-6-minimal-amd64-1</t>
+  </si>
+  <si>
+    <t>rocky-linux-8-6-minimal-amd64-1</t>
+  </si>
+  <si>
+    <t>"r006-25cce64f-b8d7-4e86-a975-2721cfebe98b"</t>
+  </si>
+  <si>
+    <t>ubuntu-20-04-4-minimal-amd64-1</t>
+  </si>
+  <si>
+    <t>ubuntu-18-04-6-minimal-amd64-3</t>
+  </si>
+  <si>
+    <t>"r006-dd164da8-c4d9-46ba-87c4-03c614f0532c"</t>
+  </si>
+  <si>
+    <t>ubuntu-22-04-minimal-amd64-1</t>
+  </si>
+  <si>
+    <t>windows-server-2022-full-standard-amd64-4</t>
+  </si>
+  <si>
+    <t>"r006-58d2df2a-768c-413d-9262-e36a5a0f4e2d"</t>
+  </si>
+  <si>
+    <t>windows-server-2019-full-standard-amd64-10</t>
+  </si>
+  <si>
+    <t>"r006-44128b44-81c8-4d90-984c-c5d0363de17f"</t>
+  </si>
+  <si>
+    <t>windows-server-2016-full-standard-amd64-10</t>
+  </si>
+  <si>
+    <t>"r006-d7ec6fd0-b8e2-43ae-bf1a-487782e30cc6"</t>
+  </si>
+  <si>
+    <t>Define OS image for compute instances (rocky-linux-8-6-minimal-amd64-1)</t>
   </si>
 </sst>
 </file>
@@ -843,9 +837,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:E18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E18" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C18">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="5">
@@ -1124,7 +1118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512DA79-E398-A147-BE1C-513651119830}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1132,54 +1128,54 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1191,47 +1187,47 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1243,47 +1239,47 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1295,47 +1291,47 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1347,32 +1343,32 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,32 +1380,32 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1421,30 +1417,30 @@
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1456,22 +1452,22 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
@@ -1481,22 +1477,22 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1508,47 +1504,47 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,32 +1556,32 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1597,32 +1593,32 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1634,17 +1630,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1692,49 +1688,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1746,32 +1742,32 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1783,32 +1779,32 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1820,17 +1816,17 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1842,17 +1838,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1864,17 +1860,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1886,17 +1882,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1958,49 +1954,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,47 +2008,47 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2064,32 +2060,32 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,32 +2097,32 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2138,47 +2134,47 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,17 +2186,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2212,47 +2208,47 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2307,49 +2303,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2361,47 +2357,47 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2413,32 +2409,32 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2450,62 +2446,62 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,47 +2513,47 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,32 +2565,32 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2606,17 +2602,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2628,47 +2624,47 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,32 +2676,32 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,32 +2713,32 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2788,49 +2784,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,47 +2838,47 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2894,32 +2890,32 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2931,62 +2927,62 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2998,47 +2994,47 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3050,32 +3046,32 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,32 +3083,32 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3158,49 +3154,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3212,47 +3208,47 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3264,47 +3260,47 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,47 +3312,47 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3368,32 +3364,32 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3405,32 +3401,32 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3461,16 +3457,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D5780C-0FB3-8641-AF0A-2663D9C6928D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -3478,194 +3474,209 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
